--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.49886495450969</v>
+        <v>1.528376666666667</v>
       </c>
       <c r="H2">
-        <v>1.49886495450969</v>
+        <v>4.58513</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.698128879432663</v>
+        <v>0.7894570000000001</v>
       </c>
       <c r="N2">
-        <v>0.698128879432663</v>
+        <v>2.368371</v>
       </c>
       <c r="O2">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581891</v>
       </c>
       <c r="P2">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581894</v>
       </c>
       <c r="Q2">
-        <v>1.046400911112739</v>
+        <v>1.206587658136667</v>
       </c>
       <c r="R2">
-        <v>1.046400911112739</v>
+        <v>10.85928892323</v>
       </c>
       <c r="S2">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581891</v>
       </c>
       <c r="T2">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.49886495450969</v>
+        <v>1.528376666666667</v>
       </c>
       <c r="H3">
-        <v>1.49886495450969</v>
+        <v>4.58513</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.50035643727944</v>
+        <v>5.625751333333334</v>
       </c>
       <c r="N3">
-        <v>5.50035643727944</v>
+        <v>16.877254</v>
       </c>
       <c r="O3">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204036</v>
       </c>
       <c r="P3">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204038</v>
       </c>
       <c r="Q3">
-        <v>8.244291501149929</v>
+        <v>8.598267070335556</v>
       </c>
       <c r="R3">
-        <v>8.244291501149929</v>
+        <v>77.38440363302001</v>
       </c>
       <c r="S3">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204036</v>
       </c>
       <c r="T3">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.49886495450969</v>
+        <v>1.528376666666667</v>
       </c>
       <c r="H4">
-        <v>1.49886495450969</v>
+        <v>4.58513</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.49301300757498</v>
+        <v>1.608865333333333</v>
       </c>
       <c r="N4">
-        <v>1.49301300757498</v>
+        <v>4.826596</v>
       </c>
       <c r="O4">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337773</v>
       </c>
       <c r="P4">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337774</v>
       </c>
       <c r="Q4">
-        <v>2.237824873681248</v>
+        <v>2.458952235275556</v>
       </c>
       <c r="R4">
-        <v>2.237824873681248</v>
+        <v>22.13057011748</v>
       </c>
       <c r="S4">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337773</v>
       </c>
       <c r="T4">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337774</v>
       </c>
     </row>
   </sheetData>
